--- a/results/tes_with_lt.xlsx
+++ b/results/tes_with_lt.xlsx
@@ -1344,34 +1344,34 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>-0.007996328239658283</v>
+        <v>0.00984021342442892</v>
       </c>
       <c r="E20">
-        <v>912.2816584022084</v>
+        <v>0.007359895120550685</v>
       </c>
       <c r="F20">
-        <v>-8.765196763533797e-06</v>
+        <v>1.337004571838607</v>
       </c>
       <c r="G20">
-        <v>0.99999300638483</v>
+        <v>0.1812211445095746</v>
       </c>
       <c r="H20">
-        <v>1.008968920536058e-05</v>
+        <v>2.464176798998792</v>
       </c>
       <c r="I20">
-        <v>-1788.04719055304</v>
+        <v>-0.004584915941842498</v>
       </c>
       <c r="J20">
-        <v>1788.031197896561</v>
+        <v>0.02426534279070034</v>
       </c>
       <c r="K20">
-        <v>0.05402254053080391</v>
+        <v>0.09059759445929938</v>
       </c>
       <c r="L20">
-        <v>0.02756408412334288</v>
+        <v>0.1054009814367989</v>
       </c>
       <c r="M20">
-        <v>0.02756408412334288</v>
+        <v>0.1054009814367989</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>-5.416442343464002</v>
       </c>
       <c r="G24">
-        <v>6.079658311665307e-08</v>
+        <v>6.079658311665307E-08</v>
       </c>
       <c r="H24">
         <v>23.97143451535079</v>
@@ -1644,38 +1644,38 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>-0.003435951508314458</v>
+        <v>-0.001116848524544828</v>
       </c>
       <c r="E26">
-        <v>0.00658219332161453</v>
+        <v>0.0008789017022140733</v>
       </c>
       <c r="F26">
-        <v>-0.5220070788610114</v>
+        <v>-1.270732007608284</v>
       </c>
       <c r="G26">
-        <v>0.6016654018720785</v>
+        <v>0.2038240046063819</v>
       </c>
       <c r="H26">
-        <v>0.7329666963756871</v>
+        <v>2.294604125389433</v>
       </c>
       <c r="I26">
-        <v>-0.016336813357959</v>
+        <v>-0.002839464206835359</v>
       </c>
       <c r="J26">
-        <v>0.009464910341330087</v>
+        <v>0.0006057671577457029</v>
       </c>
       <c r="K26">
-        <v>-0.003821014193815753</v>
+        <v>0.05013109403596516</v>
       </c>
       <c r="L26">
-        <v>0.008535668574482624</v>
+        <v>0.06139172881277777</v>
       </c>
       <c r="M26">
-        <v>0.008535668574482624</v>
+        <v>0.06139172881277777</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>IND</t>
         </is>
       </c>
     </row>
@@ -1694,38 +1694,38 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>-0.0003118195088008331</v>
+        <v>-0.003435951508314458</v>
       </c>
       <c r="E27">
-        <v>0.001319187544550937</v>
+        <v>0.00658219332161453</v>
       </c>
       <c r="F27">
-        <v>-0.2363723869959515</v>
+        <v>-0.5220070788610114</v>
       </c>
       <c r="G27">
-        <v>0.8131437211438597</v>
+        <v>0.6016654018720785</v>
       </c>
       <c r="H27">
-        <v>0.2984177272653984</v>
+        <v>0.7329666963756871</v>
       </c>
       <c r="I27">
-        <v>-0.002897379584974497</v>
+        <v>-0.016336813357959</v>
       </c>
       <c r="J27">
-        <v>0.00227374056737283</v>
+        <v>0.009464910341330087</v>
       </c>
       <c r="K27">
-        <v>0.04325206875923204</v>
+        <v>-0.003821014193815753</v>
       </c>
       <c r="L27">
-        <v>0.03272460357474172</v>
+        <v>0.008535668574482624</v>
       </c>
       <c r="M27">
-        <v>0.03272460357474172</v>
+        <v>0.008535668574482624</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>JAM</t>
         </is>
       </c>
     </row>
@@ -1744,38 +1744,38 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0.00356978481681433</v>
+        <v>-0.0003118195088008331</v>
       </c>
       <c r="E28">
-        <v>0.005174513473161069</v>
+        <v>0.001319187544550937</v>
       </c>
       <c r="F28">
-        <v>0.689878349980134</v>
+        <v>-0.2363723869959515</v>
       </c>
       <c r="G28">
-        <v>0.4902706917938677</v>
+        <v>0.8131437211438597</v>
       </c>
       <c r="H28">
-        <v>1.028349574478214</v>
+        <v>0.2984177272653984</v>
       </c>
       <c r="I28">
-        <v>-0.006572075228098629</v>
+        <v>-0.002897379584974497</v>
       </c>
       <c r="J28">
-        <v>0.01371164486172729</v>
+        <v>0.00227374056737283</v>
       </c>
       <c r="K28">
-        <v>0.01545725214885474</v>
+        <v>0.04325206875923204</v>
       </c>
       <c r="L28">
-        <v>0.0224785293017602</v>
+        <v>0.03272460357474172</v>
       </c>
       <c r="M28">
-        <v>0.0224785293017602</v>
+        <v>0.03272460357474172</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>KEN</t>
         </is>
       </c>
     </row>
@@ -1794,38 +1794,38 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0.0001443428973236489</v>
+        <v>0.00356978481681433</v>
       </c>
       <c r="E29">
-        <v>0.002159181622862647</v>
+        <v>0.005174513473161069</v>
       </c>
       <c r="F29">
-        <v>0.06685074372404058</v>
+        <v>0.689878349980134</v>
       </c>
       <c r="G29">
-        <v>0.9467005260775914</v>
+        <v>0.4902706917938677</v>
       </c>
       <c r="H29">
-        <v>0.07901997106444304</v>
+        <v>1.028349574478214</v>
       </c>
       <c r="I29">
-        <v>-0.004087575319567885</v>
+        <v>-0.006572075228098629</v>
       </c>
       <c r="J29">
-        <v>0.004376261114215183</v>
+        <v>0.01371164486172729</v>
       </c>
       <c r="K29">
-        <v>0.05166745104997661</v>
+        <v>0.01545725214885474</v>
       </c>
       <c r="L29">
-        <v>0.06036930630186754</v>
+        <v>0.0224785293017602</v>
       </c>
       <c r="M29">
-        <v>0.06036930630186754</v>
+        <v>0.0224785293017602</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>KGZ</t>
         </is>
       </c>
     </row>
@@ -1844,38 +1844,38 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>-0.001417272133093607</v>
+        <v>0.0001443428973236489</v>
       </c>
       <c r="E30">
-        <v>0.003506980121219904</v>
+        <v>0.002159181622862647</v>
       </c>
       <c r="F30">
-        <v>-0.4041289326158508</v>
+        <v>0.06685074372404058</v>
       </c>
       <c r="G30">
-        <v>0.6861179101602648</v>
+        <v>0.9467005260775914</v>
       </c>
       <c r="H30">
-        <v>0.5434715683639341</v>
+        <v>0.07901997106444304</v>
       </c>
       <c r="I30">
-        <v>-0.008290826865182529</v>
+        <v>-0.004087575319567885</v>
       </c>
       <c r="J30">
-        <v>0.005456282598995317</v>
+        <v>0.004376261114215183</v>
       </c>
       <c r="K30">
-        <v>0.06447285556811155</v>
+        <v>0.05166745104997661</v>
       </c>
       <c r="L30">
-        <v>0.06461982845151737</v>
+        <v>0.06036930630186754</v>
       </c>
       <c r="M30">
-        <v>0.06461982845151737</v>
+        <v>0.06036930630186754</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>KHM</t>
         </is>
       </c>
     </row>
@@ -1894,38 +1894,38 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>-0.007851624679150751</v>
+        <v>-0.001417272133093607</v>
       </c>
       <c r="E31">
-        <v>0.002201160663907484</v>
+        <v>0.003506980121219904</v>
       </c>
       <c r="F31">
-        <v>-3.567038430176471</v>
+        <v>-0.4041289326158508</v>
       </c>
       <c r="G31">
-        <v>0.0003610385491764876</v>
+        <v>0.6861179101602648</v>
       </c>
       <c r="H31">
-        <v>11.43555949330523</v>
+        <v>0.5434715683639341</v>
       </c>
       <c r="I31">
-        <v>-0.01216582030459569</v>
+        <v>-0.008290826865182529</v>
       </c>
       <c r="J31">
-        <v>-0.003537429053705809</v>
+        <v>0.005456282598995317</v>
       </c>
       <c r="K31">
-        <v>0.01392379191734028</v>
+        <v>0.06447285556811155</v>
       </c>
       <c r="L31">
-        <v>0.00955892307597539</v>
+        <v>0.06461982845151737</v>
       </c>
       <c r="M31">
-        <v>0.00955892307597539</v>
+        <v>0.06461982845151737</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>LAO</t>
         </is>
       </c>
     </row>
@@ -1944,38 +1944,38 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>-0.008526003399807551</v>
+        <v>-0.007851624679150751</v>
       </c>
       <c r="E32">
-        <v>0.006615311156260148</v>
+        <v>0.002201160663907484</v>
       </c>
       <c r="F32">
-        <v>-1.288828778936467</v>
+        <v>-3.567038430176471</v>
       </c>
       <c r="G32">
-        <v>0.1974576185790771</v>
+        <v>0.0003610385491764876</v>
       </c>
       <c r="H32">
-        <v>2.340385061988012</v>
+        <v>11.43555949330523</v>
       </c>
       <c r="I32">
-        <v>-0.02149177501260346</v>
+        <v>-0.01216582030459569</v>
       </c>
       <c r="J32">
-        <v>0.004439768212988358</v>
+        <v>-0.003537429053705809</v>
       </c>
       <c r="K32">
-        <v>0.001054289723072532</v>
+        <v>0.01392379191734028</v>
       </c>
       <c r="L32">
-        <v>-0.001894929137927104</v>
+        <v>0.00955892307597539</v>
       </c>
       <c r="M32">
-        <v>-0.001894929137927104</v>
+        <v>0.00955892307597539</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>LSO</t>
         </is>
       </c>
     </row>
@@ -1994,38 +1994,38 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>-0.008929079258355295</v>
+        <v>-0.008526003399807551</v>
       </c>
       <c r="E33">
-        <v>0.01677094042416238</v>
+        <v>0.006615311156260148</v>
       </c>
       <c r="F33">
-        <v>-0.5324137485749406</v>
+        <v>-1.288828778936467</v>
       </c>
       <c r="G33">
-        <v>0.594439464987342</v>
+        <v>0.1974576185790771</v>
       </c>
       <c r="H33">
-        <v>0.7503981949403797</v>
+        <v>2.340385061988012</v>
       </c>
       <c r="I33">
-        <v>-0.04179951847658044</v>
+        <v>-0.02149177501260346</v>
       </c>
       <c r="J33">
-        <v>0.02394135995986985</v>
+        <v>0.004439768212988358</v>
       </c>
       <c r="K33">
-        <v>0.08584467981643229</v>
+        <v>0.001054289723072532</v>
       </c>
       <c r="L33">
-        <v>0.05740979952983594</v>
+        <v>-0.001894929137927104</v>
       </c>
       <c r="M33">
-        <v>0.05740979952983594</v>
+        <v>-0.001894929137927104</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>MAR</t>
         </is>
       </c>
     </row>
@@ -2044,38 +2044,38 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0.003126978551782707</v>
+        <v>-0.008929079258355295</v>
       </c>
       <c r="E34">
-        <v>0.001230764375224976</v>
+        <v>0.01677094042416238</v>
       </c>
       <c r="F34">
-        <v>2.540680096635974</v>
+        <v>-0.5324137485749406</v>
       </c>
       <c r="G34">
-        <v>0.01106370972495055</v>
+        <v>0.594439464987342</v>
       </c>
       <c r="H34">
-        <v>6.498020979210192</v>
+        <v>0.7503981949403797</v>
       </c>
       <c r="I34">
-        <v>0.0007147247028868133</v>
+        <v>-0.04179951847658044</v>
       </c>
       <c r="J34">
-        <v>0.005539232400678601</v>
+        <v>0.02394135995986985</v>
       </c>
       <c r="K34">
-        <v>0.06676110901466092</v>
+        <v>0.08584467981643229</v>
       </c>
       <c r="L34">
-        <v>0.06008376229566426</v>
+        <v>0.05740979952983594</v>
       </c>
       <c r="M34">
-        <v>0.06008376229566426</v>
+        <v>0.05740979952983594</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MDA</t>
         </is>
       </c>
     </row>
@@ -2094,38 +2094,38 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>0.01035529542029463</v>
+        <v>0.003126978551782707</v>
       </c>
       <c r="E35">
-        <v>0.001919222395298018</v>
+        <v>0.001230764375224976</v>
       </c>
       <c r="F35">
-        <v>5.395568249758076</v>
+        <v>2.540680096635974</v>
       </c>
       <c r="G35">
-        <v>6.830702117864579e-08</v>
+        <v>0.01106370972495055</v>
       </c>
       <c r="H35">
-        <v>23.80339088045174</v>
+        <v>6.498020979210192</v>
       </c>
       <c r="I35">
-        <v>0.006593688647187823</v>
+        <v>0.0007147247028868133</v>
       </c>
       <c r="J35">
-        <v>0.01411690219340144</v>
+        <v>0.005539232400678601</v>
       </c>
       <c r="K35">
-        <v>0.05331068308445808</v>
+        <v>0.06676110901466092</v>
       </c>
       <c r="L35">
-        <v>0.05599931565030403</v>
+        <v>0.06008376229566426</v>
       </c>
       <c r="M35">
-        <v>0.05599931565030403</v>
+        <v>0.06008376229566426</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>MDG</t>
         </is>
       </c>
     </row>
@@ -2144,38 +2144,38 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>0.003892278506982586</v>
+        <v>0.01035529542029463</v>
       </c>
       <c r="E36">
-        <v>0.004760280698874401</v>
+        <v>0.001919222395298018</v>
       </c>
       <c r="F36">
-        <v>0.8176573511522001</v>
+        <v>5.395568249758076</v>
       </c>
       <c r="G36">
-        <v>0.4135528696737474</v>
+        <v>6.830702117864579E-08</v>
       </c>
       <c r="H36">
-        <v>1.273856315816482</v>
+        <v>23.80339088045174</v>
       </c>
       <c r="I36">
-        <v>-0.005437700219112396</v>
+        <v>0.006593688647187823</v>
       </c>
       <c r="J36">
-        <v>0.01322225723307757</v>
+        <v>0.01411690219340144</v>
       </c>
       <c r="K36">
-        <v>0.01230688693300408</v>
+        <v>0.05331068308445808</v>
       </c>
       <c r="L36">
-        <v>-0.0052146545718601</v>
+        <v>0.05599931565030403</v>
       </c>
       <c r="M36">
-        <v>-0.0052146545718601</v>
+        <v>0.05599931565030403</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>MLI</t>
         </is>
       </c>
     </row>
@@ -2194,38 +2194,38 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>-0.003176625507633359</v>
+        <v>0.003892278506982586</v>
       </c>
       <c r="E37">
-        <v>0.002337375714978141</v>
+        <v>0.004760280698874401</v>
       </c>
       <c r="F37">
-        <v>-1.359056435504664</v>
+        <v>0.8176573511522001</v>
       </c>
       <c r="G37">
-        <v>0.1741287061035927</v>
+        <v>0.4135528696737474</v>
       </c>
       <c r="H37">
-        <v>2.521774035841887</v>
+        <v>1.273856315816482</v>
       </c>
       <c r="I37">
-        <v>-0.007757797727329074</v>
+        <v>-0.005437700219112396</v>
       </c>
       <c r="J37">
-        <v>0.001404546712062355</v>
+        <v>0.01322225723307757</v>
       </c>
       <c r="K37">
-        <v>0.1294003760231777</v>
+        <v>0.01230688693300408</v>
       </c>
       <c r="L37">
-        <v>0.1201787513977681</v>
+        <v>-0.0052146545718601</v>
       </c>
       <c r="M37">
-        <v>0.1201787513977681</v>
+        <v>-0.0052146545718601</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MNG</t>
         </is>
       </c>
     </row>
@@ -2244,38 +2244,38 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>-0.002229044374706317</v>
+        <v>-0.003176625507633359</v>
       </c>
       <c r="E38">
-        <v>0.001675722497401734</v>
+        <v>0.002337375714978141</v>
       </c>
       <c r="F38">
-        <v>-1.330198990681648</v>
+        <v>-1.359056435504664</v>
       </c>
       <c r="G38">
-        <v>0.1834527166396336</v>
+        <v>0.1741287061035927</v>
       </c>
       <c r="H38">
-        <v>2.446519826149868</v>
+        <v>2.521774035841887</v>
       </c>
       <c r="I38">
-        <v>-0.005513400117697229</v>
+        <v>-0.007757797727329074</v>
       </c>
       <c r="J38">
-        <v>0.001055311368284595</v>
+        <v>0.001404546712062355</v>
       </c>
       <c r="K38">
-        <v>0.05462792911786951</v>
+        <v>0.1294003760231777</v>
       </c>
       <c r="L38">
-        <v>0.06260292641107523</v>
+        <v>0.1201787513977681</v>
       </c>
       <c r="M38">
-        <v>0.06260292641107523</v>
+        <v>0.1201787513977681</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>MOZ</t>
         </is>
       </c>
     </row>
@@ -2294,38 +2294,38 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>0.0005051445015120048</v>
+        <v>-0.002229044374706317</v>
       </c>
       <c r="E39">
-        <v>0.001974536074150706</v>
+        <v>0.001675722497401734</v>
       </c>
       <c r="F39">
-        <v>0.2558294619809766</v>
+        <v>-1.330198990681648</v>
       </c>
       <c r="G39">
-        <v>0.7980825233712164</v>
+        <v>0.1834527166396336</v>
       </c>
       <c r="H39">
-        <v>0.3253901630977879</v>
+        <v>2.446519826149868</v>
       </c>
       <c r="I39">
-        <v>-0.003364875089998489</v>
+        <v>-0.005513400117697229</v>
       </c>
       <c r="J39">
-        <v>0.004375164093022498</v>
+        <v>0.001055311368284595</v>
       </c>
       <c r="K39">
-        <v>0.04557577860222972</v>
+        <v>0.05462792911786951</v>
       </c>
       <c r="L39">
-        <v>0.06147841182719693</v>
+        <v>0.06260292641107523</v>
       </c>
       <c r="M39">
-        <v>0.06147841182719693</v>
+        <v>0.06260292641107523</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MRT</t>
         </is>
       </c>
     </row>
@@ -2344,38 +2344,38 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>-0.003273325023227455</v>
+        <v>0.0005051445015120048</v>
       </c>
       <c r="E40">
-        <v>0.005127005374184012</v>
+        <v>0.001974536074150706</v>
       </c>
       <c r="F40">
-        <v>-0.6384477456781329</v>
+        <v>0.2558294619809766</v>
       </c>
       <c r="G40">
-        <v>0.5231822590254575</v>
+        <v>0.7980825233712164</v>
       </c>
       <c r="H40">
-        <v>0.934614474636124</v>
+        <v>0.3253901630977879</v>
       </c>
       <c r="I40">
-        <v>-0.01332207090517142</v>
+        <v>-0.003364875089998489</v>
       </c>
       <c r="J40">
-        <v>0.00677542085871651</v>
+        <v>0.004375164093022498</v>
       </c>
       <c r="K40">
-        <v>0.01239517041119093</v>
+        <v>0.04557577860222972</v>
       </c>
       <c r="L40">
-        <v>0.0351913942256275</v>
+        <v>0.06147841182719693</v>
       </c>
       <c r="M40">
-        <v>0.0351913942256275</v>
+        <v>0.06147841182719693</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>MWI</t>
         </is>
       </c>
     </row>
@@ -2394,38 +2394,38 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>-0.01072818985448159</v>
+        <v>-0.003273325023227455</v>
       </c>
       <c r="E41">
-        <v>0.008253538775703744</v>
+        <v>0.005127005374184012</v>
       </c>
       <c r="F41">
-        <v>-1.299829097073194</v>
+        <v>-0.6384477456781329</v>
       </c>
       <c r="G41">
-        <v>0.1936595504661963</v>
+        <v>0.5231822590254575</v>
       </c>
       <c r="H41">
-        <v>2.368405444177092</v>
+        <v>0.934614474636124</v>
       </c>
       <c r="I41">
-        <v>-0.02690482859986574</v>
+        <v>-0.01332207090517142</v>
       </c>
       <c r="J41">
-        <v>0.005448448890902555</v>
+        <v>0.00677542085871651</v>
       </c>
       <c r="K41">
-        <v>0.05551093159269271</v>
+        <v>0.01239517041119093</v>
       </c>
       <c r="L41">
-        <v>0.06039928759770419</v>
+        <v>0.0351913942256275</v>
       </c>
       <c r="M41">
-        <v>0.06039928759770419</v>
+        <v>0.0351913942256275</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>NAM</t>
         </is>
       </c>
     </row>
@@ -2444,38 +2444,38 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>-0.01318136655888724</v>
+        <v>-0.01072818985448159</v>
       </c>
       <c r="E42">
-        <v>0.01014953533394274</v>
+        <v>0.008253538775703744</v>
       </c>
       <c r="F42">
-        <v>-1.298716258940963</v>
+        <v>-1.299829097073194</v>
       </c>
       <c r="G42">
-        <v>0.1940413221883128</v>
+        <v>0.1936595504661963</v>
       </c>
       <c r="H42">
-        <v>2.365564179753316</v>
+        <v>2.368405444177092</v>
       </c>
       <c r="I42">
-        <v>-0.03307409027323173</v>
+        <v>-0.02690482859986574</v>
       </c>
       <c r="J42">
-        <v>0.006711357155457242</v>
+        <v>0.005448448890902555</v>
       </c>
       <c r="K42">
-        <v>0.1961326879846833</v>
+        <v>0.05551093159269271</v>
       </c>
       <c r="L42">
-        <v>0.1632562254227096</v>
+        <v>0.06039928759770419</v>
       </c>
       <c r="M42">
-        <v>0.1632562254227096</v>
+        <v>0.06039928759770419</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>NER</t>
         </is>
       </c>
     </row>
@@ -2494,38 +2494,38 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>0.001927476120430733</v>
+        <v>-0.01318136655888724</v>
       </c>
       <c r="E43">
-        <v>0.001339570388875449</v>
+        <v>0.01014953533394274</v>
       </c>
       <c r="F43">
-        <v>1.438876326647399</v>
+        <v>-1.298716258940963</v>
       </c>
       <c r="G43">
-        <v>0.1501855659303226</v>
+        <v>0.1940413221883128</v>
       </c>
       <c r="H43">
-        <v>2.735181930246819</v>
+        <v>2.365564179753316</v>
       </c>
       <c r="I43">
-        <v>-0.0006980335965214605</v>
+        <v>-0.03307409027323173</v>
       </c>
       <c r="J43">
-        <v>0.004552985837382926</v>
+        <v>0.006711357155457242</v>
       </c>
       <c r="K43">
-        <v>0.06859361094201422</v>
+        <v>0.1961326879846833</v>
       </c>
       <c r="L43">
-        <v>0.07202275454129303</v>
+        <v>0.1632562254227096</v>
       </c>
       <c r="M43">
-        <v>0.07202275454129303</v>
+        <v>0.1632562254227096</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>NPL</t>
+          <t>NIC</t>
         </is>
       </c>
     </row>
@@ -2544,38 +2544,38 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>0.001349232914634305</v>
+        <v>0.001927476120430733</v>
       </c>
       <c r="E44">
-        <v>0.00179458313366839</v>
+        <v>0.001339570388875449</v>
       </c>
       <c r="F44">
-        <v>0.7518363954955246</v>
+        <v>1.438876326647399</v>
       </c>
       <c r="G44">
-        <v>0.4521494518325551</v>
+        <v>0.1501855659303226</v>
       </c>
       <c r="H44">
-        <v>1.145128380256379</v>
+        <v>2.735181930246819</v>
       </c>
       <c r="I44">
-        <v>-0.002168085394618768</v>
+        <v>-0.0006980335965214605</v>
       </c>
       <c r="J44">
-        <v>0.004866551223887378</v>
+        <v>0.004552985837382926</v>
       </c>
       <c r="K44">
-        <v>0.03192939764511404</v>
+        <v>0.06859361094201422</v>
       </c>
       <c r="L44">
-        <v>0.03176454571861465</v>
+        <v>0.07202275454129303</v>
       </c>
       <c r="M44">
-        <v>0.03176454571861465</v>
+        <v>0.07202275454129303</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>NPL</t>
         </is>
       </c>
     </row>
@@ -2594,38 +2594,38 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>0.002714960693323909</v>
+        <v>0.001349232914634305</v>
       </c>
       <c r="E45">
-        <v>10.59851272376464</v>
+        <v>0.00179458313366839</v>
       </c>
       <c r="F45">
-        <v>0.000256164309472994</v>
+        <v>0.7518363954955246</v>
       </c>
       <c r="G45">
-        <v>0.9997956104546781</v>
+        <v>0.4521494518325551</v>
       </c>
       <c r="H45">
-        <v>0.0002949019219070132</v>
+        <v>1.145128380256379</v>
       </c>
       <c r="I45">
-        <v>-20.76998826757488</v>
+        <v>-0.002168085394618768</v>
       </c>
       <c r="J45">
-        <v>20.77541818896153</v>
+        <v>0.004866551223887378</v>
       </c>
       <c r="K45">
-        <v>0.05905941089316236</v>
+        <v>0.03192939764511404</v>
       </c>
       <c r="L45">
-        <v>0.04960235396737578</v>
+        <v>0.03176454571861465</v>
       </c>
       <c r="M45">
-        <v>0.04960235396737578</v>
+        <v>0.03176454571861465</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>PAK</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
         <v>7.233796732317724</v>
       </c>
       <c r="G58">
-        <v>4.696745990035916e-13</v>
+        <v>4.696745990035916E-13</v>
       </c>
       <c r="H58">
         <v>40.95340366183159</v>
@@ -3368,10 +3368,10 @@
         <v>0.01332325234604881</v>
       </c>
       <c r="L60">
-        <v>-6.005618224946829e-11</v>
+        <v>-6.005618224946829E-11</v>
       </c>
       <c r="M60">
-        <v>-6.005618224946829e-11</v>
+        <v>-6.005618224946829E-11</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
